--- a/ExchangeActiveSync/Docs/MS-ASDOC/MS-ASDOC_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASDOC/MS-ASDOC_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="347">
   <si>
     <t>Req ID</t>
   </si>
@@ -863,18 +863,6 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.6.1</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>2.1.2.1</t>
   </si>
   <si>
@@ -1237,9 +1225,6 @@
     <t>[In dateTime Data Type] Elements with a dateTime data type MUST be encoded and transmitted as [WBXML1.2] inline strings.</t>
   </si>
   <si>
-    <t>[In integer Data Type] Elements with an integer data type MUST be encoded and transmitted as [WBXML1.2] inline strings.</t>
-  </si>
-  <si>
     <t>[In string Data Type] A string is a chunk of Unicode text.</t>
   </si>
   <si>
@@ -1299,12 +1284,21 @@
   <si>
     <t>Open Specification Date:</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In integer Data Type] Elements with an integer data type MUST be encoded and transmitted as WBXML inline strings, as specified in [WBXML1.2].</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -1501,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1559,9 +1553,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1569,6 +1560,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,6 +1603,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,14 +2503,13 @@
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -2523,7 +2519,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2536,11 +2532,11 @@
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29">
-        <v>10</v>
+      <c r="C3" s="46" t="s">
+        <v>346</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F3" s="12">
         <v>41474</v>
@@ -2830,7 +2826,7 @@
         <v>180</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -2855,7 +2851,7 @@
         <v>180</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -2880,7 +2876,7 @@
         <v>181</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -2905,7 +2901,7 @@
         <v>181</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -2930,7 +2926,7 @@
         <v>182</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -2955,7 +2951,7 @@
         <v>182</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -2980,7 +2976,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -3005,7 +3001,7 @@
         <v>182</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -3030,7 +3026,7 @@
         <v>182</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -3055,7 +3051,7 @@
         <v>182</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -3080,7 +3076,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -3105,7 +3101,7 @@
         <v>183</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -3130,7 +3126,7 @@
         <v>183</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -3155,7 +3151,7 @@
         <v>183</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -3173,3129 +3169,3129 @@
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="30">
+      <c r="A38" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="30">
+      <c r="A41" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="60">
+      <c r="A44" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" ht="60">
+      <c r="A47" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="60">
+      <c r="A48" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" ht="60">
+      <c r="A51" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" ht="60">
+      <c r="A54" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="45">
+      <c r="A57" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" ht="30">
+      <c r="A58" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" ht="30">
+      <c r="A59" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" ht="60">
+      <c r="A63" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" ht="30">
+      <c r="A64" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" ht="30">
+      <c r="A65" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" ht="75">
+      <c r="A71" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" ht="30">
+      <c r="A73" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G74" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="H74" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" ht="45">
+      <c r="A75" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" ht="45">
+      <c r="A76" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" spans="1:9" ht="45">
+      <c r="A77" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="1:9" ht="30">
+      <c r="A78" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" ht="60">
+      <c r="A79" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="30" t="s">
+      <c r="H79" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="80" spans="1:9" ht="30">
+      <c r="A80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="1:9" ht="30">
+      <c r="A81" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="82" spans="1:9" ht="45">
+      <c r="A82" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="31"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="1:9" ht="30">
+      <c r="A84" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="31"/>
+    </row>
+    <row r="85" spans="1:9" ht="30">
+      <c r="A85" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="31"/>
+    </row>
+    <row r="86" spans="1:9" ht="30">
+      <c r="A86" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="87" spans="1:9" ht="60">
+      <c r="A87" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="31"/>
+    </row>
+    <row r="88" spans="1:9" ht="60">
+      <c r="A88" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" ht="60">
+      <c r="A89" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="90" spans="1:9" ht="60">
+      <c r="A90" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" ht="45">
+      <c r="A91" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="1:9" ht="45">
+      <c r="A92" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="31"/>
+    </row>
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="1:9" ht="60">
+      <c r="A94" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="1:9" ht="30">
+      <c r="A96" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="45">
+      <c r="A97" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G97" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="98" spans="1:9" ht="30">
+      <c r="A98" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="99" spans="1:9" ht="30">
+      <c r="A99" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:9" ht="30">
-      <c r="A37" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="H99" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:9" ht="45">
+      <c r="A100" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" ht="30">
-      <c r="A38" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="30" t="s">
+      <c r="H100" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" ht="45">
+      <c r="A101" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" ht="30">
+      <c r="A102" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="H102" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="31"/>
+    </row>
+    <row r="103" spans="1:9" ht="30">
+      <c r="A103" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" ht="30">
+      <c r="A104" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:9" ht="30">
-      <c r="A40" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="30" t="s">
+      <c r="H104" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="31"/>
+    </row>
+    <row r="105" spans="1:9" ht="30">
+      <c r="A105" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" ht="30">
+      <c r="A106" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="H106" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" spans="1:9" ht="30">
+      <c r="A107" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" spans="1:9" ht="30">
-      <c r="A42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="30" t="s">
+      <c r="H107" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:9" ht="45">
+      <c r="A108" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:9" ht="45">
-      <c r="A43" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="30" t="s">
+      <c r="H108" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="31"/>
+    </row>
+    <row r="109" spans="1:9" ht="30">
+      <c r="A109" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:9" ht="60">
-      <c r="A44" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="H109" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9" ht="30">
+      <c r="A110" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:9" ht="30">
-      <c r="A46" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="30" t="s">
+      <c r="H110" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" ht="30">
+      <c r="A111" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:9" ht="30">
+      <c r="A112" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="1:9" ht="30">
+      <c r="A113" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="1:9" ht="30">
+      <c r="A114" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="31"/>
+    </row>
+    <row r="115" spans="1:9" ht="30">
+      <c r="A115" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:9" ht="30">
+      <c r="A116" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="31"/>
+    </row>
+    <row r="117" spans="1:9" ht="60">
+      <c r="A117" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:9" ht="45">
+      <c r="A118" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" ht="30">
+      <c r="A119" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" ht="30">
+      <c r="A120" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="31"/>
+    </row>
+    <row r="121" spans="1:9" ht="60">
+      <c r="A121" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="1:9" ht="60">
-      <c r="A47" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="30" t="s">
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:9" ht="30">
+      <c r="A122" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:9" ht="45">
+      <c r="A123" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:9" ht="30">
+      <c r="A124" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:9" ht="30">
+      <c r="A125" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:9" ht="45">
+      <c r="A126" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" s="31"/>
+    </row>
+    <row r="127" spans="1:9" ht="75">
+      <c r="A127" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:9" ht="30">
+      <c r="A128" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:9" ht="60">
-      <c r="A48" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="30" t="s">
+      <c r="H128" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="1:9" ht="30">
+      <c r="A129" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:9" ht="30">
-      <c r="A50" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="30" t="s">
+      <c r="H129" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="31"/>
+    </row>
+    <row r="130" spans="1:9" ht="60">
+      <c r="A130" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9" ht="60">
-      <c r="A51" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="30" t="s">
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="1:9" ht="30">
+      <c r="A131" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="31"/>
+    </row>
+    <row r="132" spans="1:9" ht="45">
+      <c r="A132" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" s="31"/>
+    </row>
+    <row r="133" spans="1:9" ht="60">
+      <c r="A133" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="31"/>
+    </row>
+    <row r="134" spans="1:9" ht="45">
+      <c r="A134" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="30" t="s">
+      <c r="I134" s="31"/>
+    </row>
+    <row r="135" spans="1:9" ht="45">
+      <c r="A135" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="1:9" ht="30">
-      <c r="A53" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="H135" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="31"/>
+    </row>
+    <row r="136" spans="1:9" ht="30">
+      <c r="A136" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="31"/>
+    </row>
+    <row r="137" spans="1:9" ht="30">
+      <c r="A137" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="1:9" ht="60">
-      <c r="A54" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="30" t="s">
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="1:9" ht="150">
+      <c r="A138" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:9" ht="30">
-      <c r="A55" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="30" t="s">
+      <c r="I138" s="31"/>
+    </row>
+    <row r="139" spans="1:9" ht="30">
+      <c r="A139" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="1:9" ht="45">
-      <c r="A57" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="30" t="s">
+      <c r="I139" s="31"/>
+    </row>
+    <row r="140" spans="1:9" ht="30">
+      <c r="A140" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="1:9" ht="30">
-      <c r="A58" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="1:9" ht="30">
-      <c r="A59" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="30" t="s">
+      <c r="I140" s="31"/>
+    </row>
+    <row r="141" spans="1:9" ht="30">
+      <c r="A141" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="32"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="30" t="s">
+      <c r="I141" s="31"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="32">
+        <v>2.7</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="32"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="1:9" ht="60">
-      <c r="A63" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="30" t="s">
+      <c r="I142" s="31"/>
+    </row>
+    <row r="143" spans="1:9" ht="30">
+      <c r="A143" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="32">
+        <v>2.7</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="1:9" ht="30">
-      <c r="A64" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" spans="1:9" ht="30">
-      <c r="A65" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="30" t="s">
+      <c r="I143" s="31"/>
+    </row>
+    <row r="144" spans="1:9" ht="30">
+      <c r="A144" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="32">
+        <v>2.7</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="30" t="s">
+      <c r="I144" s="31"/>
+    </row>
+    <row r="145" spans="1:9" ht="30">
+      <c r="A145" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="32">
+        <v>2.7</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="32"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="32"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="32"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="32"/>
-    </row>
-    <row r="71" spans="1:9" ht="75">
-      <c r="A71" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="30" t="s">
+      <c r="I145" s="31"/>
+    </row>
+    <row r="146" spans="1:9" ht="30">
+      <c r="A146" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="32"/>
-    </row>
-    <row r="72" spans="1:9" ht="30">
-      <c r="A72" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="32"/>
-    </row>
-    <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="30" t="s">
+      <c r="I146" s="31"/>
+    </row>
+    <row r="147" spans="1:9" ht="30">
+      <c r="A147" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="32"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="30" t="s">
+      <c r="I147" s="31"/>
+    </row>
+    <row r="148" spans="1:9" ht="30">
+      <c r="A148" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="32">
+        <v>2.8</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="32"/>
-    </row>
-    <row r="75" spans="1:9" ht="45">
-      <c r="A75" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="32"/>
-    </row>
-    <row r="76" spans="1:9" ht="45">
-      <c r="A76" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="30" t="s">
+      <c r="G148" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="32"/>
-    </row>
-    <row r="77" spans="1:9" ht="45">
-      <c r="A77" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="32"/>
-    </row>
-    <row r="78" spans="1:9" ht="30">
-      <c r="A78" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="30" t="s">
+      <c r="I148" s="31"/>
+    </row>
+    <row r="149" spans="1:9" ht="30">
+      <c r="A149" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="32">
+        <v>2.8</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="32"/>
-    </row>
-    <row r="79" spans="1:9" ht="60">
-      <c r="A79" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="30" t="s">
+      <c r="I149" s="31"/>
+    </row>
+    <row r="150" spans="1:9" ht="30">
+      <c r="A150" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="32"/>
-    </row>
-    <row r="80" spans="1:9" ht="30">
-      <c r="A80" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="1:9" ht="30">
-      <c r="A81" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="32"/>
-    </row>
-    <row r="82" spans="1:9" ht="45">
-      <c r="A82" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="32"/>
-    </row>
-    <row r="83" spans="1:9" ht="30">
-      <c r="A83" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="32"/>
-    </row>
-    <row r="84" spans="1:9" ht="30">
-      <c r="A84" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="1:9" ht="30">
-      <c r="A85" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="32"/>
-    </row>
-    <row r="86" spans="1:9" ht="30">
-      <c r="A86" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="32"/>
-    </row>
-    <row r="87" spans="1:9" ht="60">
-      <c r="A87" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="32"/>
-    </row>
-    <row r="88" spans="1:9" ht="60">
-      <c r="A88" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="32"/>
-    </row>
-    <row r="89" spans="1:9" ht="60">
-      <c r="A89" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="32"/>
-    </row>
-    <row r="90" spans="1:9" ht="60">
-      <c r="A90" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="32"/>
-    </row>
-    <row r="91" spans="1:9" ht="45">
-      <c r="A91" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="32"/>
-    </row>
-    <row r="92" spans="1:9" ht="45">
-      <c r="A92" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="32"/>
-    </row>
-    <row r="93" spans="1:9" ht="30">
-      <c r="A93" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="32"/>
-    </row>
-    <row r="94" spans="1:9" ht="60">
-      <c r="A94" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="32"/>
-    </row>
-    <row r="95" spans="1:9" ht="30">
-      <c r="A95" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H95" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="32"/>
-    </row>
-    <row r="96" spans="1:9" ht="30">
-      <c r="A96" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="32"/>
-    </row>
-    <row r="97" spans="1:9" ht="45">
-      <c r="A97" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="30" t="s">
+      <c r="G150" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="31"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="32"/>
-    </row>
-    <row r="98" spans="1:9" ht="30">
-      <c r="A98" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="32"/>
-    </row>
-    <row r="99" spans="1:9" ht="30">
-      <c r="A99" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" s="32"/>
-    </row>
-    <row r="100" spans="1:9" ht="45">
-      <c r="A100" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100" s="32"/>
-    </row>
-    <row r="101" spans="1:9" ht="45">
-      <c r="A101" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G101" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" s="32"/>
-    </row>
-    <row r="102" spans="1:9" ht="30">
-      <c r="A102" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" s="32"/>
-    </row>
-    <row r="103" spans="1:9" ht="30">
-      <c r="A103" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="32"/>
-    </row>
-    <row r="104" spans="1:9" ht="30">
-      <c r="A104" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I104" s="32"/>
-    </row>
-    <row r="105" spans="1:9" ht="30">
-      <c r="A105" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105" s="32"/>
-    </row>
-    <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="32"/>
-    </row>
-    <row r="107" spans="1:9" ht="30">
-      <c r="A107" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="32"/>
-    </row>
-    <row r="108" spans="1:9" ht="45">
-      <c r="A108" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="32"/>
-    </row>
-    <row r="109" spans="1:9" ht="30">
-      <c r="A109" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I109" s="32"/>
-    </row>
-    <row r="110" spans="1:9" ht="30">
-      <c r="A110" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="32"/>
-    </row>
-    <row r="111" spans="1:9" ht="30">
-      <c r="A111" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="32"/>
-    </row>
-    <row r="112" spans="1:9" ht="30">
-      <c r="A112" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I112" s="32"/>
-    </row>
-    <row r="113" spans="1:9" ht="30">
-      <c r="A113" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="32"/>
-    </row>
-    <row r="114" spans="1:9" ht="30">
-      <c r="A114" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="32"/>
-    </row>
-    <row r="115" spans="1:9" ht="30">
-      <c r="A115" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="32"/>
-    </row>
-    <row r="116" spans="1:9" ht="30">
-      <c r="A116" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="32"/>
-    </row>
-    <row r="117" spans="1:9" ht="60">
-      <c r="A117" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G117" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" s="32"/>
-    </row>
-    <row r="118" spans="1:9" ht="45">
-      <c r="A118" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118" s="32"/>
-    </row>
-    <row r="119" spans="1:9" ht="30">
-      <c r="A119" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I119" s="32"/>
-    </row>
-    <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="32"/>
-    </row>
-    <row r="121" spans="1:9" ht="60">
-      <c r="A121" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="30" t="s">
+      <c r="G151" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I121" s="32"/>
-    </row>
-    <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122" s="32"/>
-    </row>
-    <row r="123" spans="1:9" ht="45">
-      <c r="A123" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I123" s="32"/>
-    </row>
-    <row r="124" spans="1:9" ht="30">
-      <c r="A124" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="30" t="s">
+      <c r="I151" s="31"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I124" s="32"/>
-    </row>
-    <row r="125" spans="1:9" ht="30">
-      <c r="A125" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="30" t="s">
+      <c r="I152" s="31"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I125" s="32"/>
-    </row>
-    <row r="126" spans="1:9" ht="45">
-      <c r="A126" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I126" s="32"/>
-    </row>
-    <row r="127" spans="1:9" ht="75">
-      <c r="A127" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I127" s="32"/>
-    </row>
-    <row r="128" spans="1:9" ht="30">
-      <c r="A128" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I128" s="32"/>
-    </row>
-    <row r="129" spans="1:9" ht="30">
-      <c r="A129" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I129" s="32"/>
-    </row>
-    <row r="130" spans="1:9" ht="60">
-      <c r="A130" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="30" t="s">
+      <c r="I153" s="31"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I130" s="32"/>
-    </row>
-    <row r="131" spans="1:9" ht="30">
-      <c r="A131" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I131" s="32"/>
-    </row>
-    <row r="132" spans="1:9" ht="45">
-      <c r="A132" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H132" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I132" s="32"/>
-    </row>
-    <row r="133" spans="1:9" ht="60">
-      <c r="A133" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="32"/>
-    </row>
-    <row r="134" spans="1:9" ht="45">
-      <c r="A134" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="30" t="s">
+      <c r="I154" s="31"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I134" s="32"/>
-    </row>
-    <row r="135" spans="1:9" ht="45">
-      <c r="A135" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="32"/>
-    </row>
-    <row r="136" spans="1:9" ht="30">
-      <c r="A136" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="32"/>
-    </row>
-    <row r="137" spans="1:9" ht="30">
-      <c r="A137" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G137" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="30" t="s">
+      <c r="I155" s="31"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I137" s="32"/>
-    </row>
-    <row r="138" spans="1:9" ht="150">
-      <c r="A138" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G138" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="30" t="s">
+      <c r="I156" s="31"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="32"/>
-    </row>
-    <row r="139" spans="1:9" ht="30">
-      <c r="A139" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="30" t="s">
+      <c r="I157" s="31"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I139" s="32"/>
-    </row>
-    <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G140" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I140" s="32"/>
-    </row>
-    <row r="141" spans="1:9" ht="30">
-      <c r="A141" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G141" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141" s="32"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F142" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G142" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I142" s="32"/>
-    </row>
-    <row r="143" spans="1:9" ht="30">
-      <c r="A143" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G143" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" s="32"/>
-    </row>
-    <row r="144" spans="1:9" ht="30">
-      <c r="A144" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G144" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I144" s="32"/>
-    </row>
-    <row r="145" spans="1:9" ht="30">
-      <c r="A145" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G145" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I145" s="32"/>
-    </row>
-    <row r="146" spans="1:9" ht="30">
-      <c r="A146" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F146" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I146" s="32"/>
-    </row>
-    <row r="147" spans="1:9" ht="30">
-      <c r="A147" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G147" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I147" s="32"/>
-    </row>
-    <row r="148" spans="1:9" ht="30">
-      <c r="A148" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G148" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I148" s="32"/>
-    </row>
-    <row r="149" spans="1:9" ht="30">
-      <c r="A149" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G149" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="32"/>
-    </row>
-    <row r="150" spans="1:9" ht="30">
-      <c r="A150" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150" s="32"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G151" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I151" s="32"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="32"/>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I153" s="32"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F154" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154" s="32"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H155" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I155" s="32"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H156" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" s="32"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I157" s="32"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G158" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H158" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="32"/>
+      <c r="I158" s="31"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3"/>
@@ -6397,7 +6393,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B160" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B149 B150:B160 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -6407,12 +6403,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6461,16 +6466,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6484,7 +6488,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6497,12 +6501,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASDOC/MS-ASDOC_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASDOC/MS-ASDOC_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C2869-C46D-4371-84B0-3B312CB56D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF15548-49B7-4A78-84CD-77D73843991B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1785" windowWidth="25515" windowHeight="13155" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -1146,8 +1146,308 @@
     <t>2.7.1</t>
   </si>
   <si>
+    <t>[In ContentLength] Protocol version 12.1 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] Protocol version 14.0 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] Protocol version 12.0 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] Protocol version 14.1 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] Protocol version 16.0 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] Protocol version 16.1 supports this [ContentLength] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R600</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R601</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R602</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R603</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R604</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R605</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R606</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R607</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R608</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R609</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R610</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R611</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 12.0 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 12.1 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 14.0 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 14.1 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 16.0 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>[In ContentType] Protocol version 16.1 supports this [ContentType] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R612</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R613</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R614</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R615</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R616</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R617</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 12.0 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 14.0 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 14.1 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 16.0 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 16.1 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R618</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R619</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R620</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R621</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R622</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R623</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 12.0 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 12.1 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] Protocol version 12.1 supports this [CreationDate] element.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 14.0 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 14.1 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 16.0 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] Protocol version 16.1 supports this [DisplayName] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R624</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R625</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R626</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R627</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R628</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R629</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 12.0 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 12.1 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 14.0 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 14.1 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 16.0 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] Protocol version 16.1 supports this [IsFolder] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R630</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R631</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R632</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R633</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R634</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R635</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 12.0 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 12.1 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 14.0 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 14.1 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 16.0 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] Protocol version 16.1 supports this [IsHidden] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R636</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R637</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R638</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R639</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R640</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R641</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 12.0 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 12.1 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.0 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 14.1 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.0 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] Protocol version 16.1 supports this [LastModifiedDate] element.</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R642</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R643</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R644</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R645</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R646</t>
+  </si>
+  <si>
+    <t>MS-ASDOC_R647</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 12.0 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 12.1 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 14.0 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 14.1 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 16.0 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>[In LinkId] Protocol version 16.1 supports this [LinkId] element.</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>[In Namespaces] Prefix "itemoperations" is used for Namespace URI ItemOperations,which reference [MS-ASCMD] section 2.2.1.10.</t>
+  </si>
+  <si>
+    <t>[In Namespaces] Prefix "search" is used for Namespace URI Search,which reference [MS-ASCMD] section 2.2.1.16.</t>
+  </si>
+  <si>
+    <t>[In Elements]The CreationDate (section 2.2.2.3) element specifies the date and time when the document or folder was first created.</t>
+  </si>
+  <si>
     <r>
-      <t>[In Namespaces] Prefix "itemoperations" is used for Namespace URI ItemOperations,which reference [MS-ASCMD] section 2.2.</t>
+      <t>[In Elements]The LastModifiedDate (section 2.2.2.7) element specifies the date and time when the document , or the folder</t>
     </r>
     <r>
       <rPr>
@@ -1156,99 +1456,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Namespaces] Prefix "search" is used for Namespace URI Search,which reference [MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In Elements]The DisplayName (section 2.2.2.4) element specifies the name of the document </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>or folder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, as displayed by the client.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In Elements]The CreationDate (section 2.2.2.3) element specifies the date and time when the document </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>or folder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> was first created.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In Elements]The LastModifiedDate (section 2.2.2.7) element specifies the date and time when the document , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>or the folder,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -1261,1636 +1469,139 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>[In ContentLength] The ContentLength element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies the estimated size, in bytes, of the document.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ContentLength] The value of this element[ContentLength] is an integer data type, as specified in[MS-ASDTYPE] section 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 12.1 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 14.0 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 12.0 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 14.1 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 16.0 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>[In ContentLength] Protocol version 16.1 supports this [ContentLength] element.</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R600</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R601</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R602</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R603</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R604</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R605</t>
-  </si>
-  <si>
-    <r>
-      <t>[In ContentType] The ContentType element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) for Document class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies the MIME type of the binary-encoded content or document encoded with base64 encoding, if known.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ContentType] The value of this element[ContentType] is a string data type, as specified in [MS-ASDTYPE] section 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R606</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R607</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R608</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R609</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R610</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R611</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 12.0 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 12.1 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 14.0 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 14.1 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 16.0 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <t>[In ContentType] Protocol version 16.1 supports this [ContentType] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In CreationDate] The CreationDate element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies the date and time when the document or folder was created.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R612</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R613</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R614</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R615</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R616</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R617</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 12.0 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 14.0 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 14.1 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 16.0 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 16.1 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In DisplayName] The DisplayName element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies the name of the document or folder as it is displayed to the user.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In DisplayName] The value of this element[DisplayName] is a string data type, as specified in [MS-ASDTYPE] section 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R618</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R619</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R620</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R621</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R622</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R623</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 12.0 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 12.1 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <t>[In CreationDate] Protocol version 12.1 supports this [CreationDate] element.</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 14.0 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 14.1 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 16.0 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <t>[In DisplayName] Protocol version 16.1 supports this [DisplayName] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In IsFolder] The IsFolder element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies whether the item is a folder.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In IsFolder] The value of this element[IsFolder] is an unsignedByte data type, as specified in [MS-ASDTYPE] section 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R624</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R625</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R626</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R627</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R628</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R629</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 12.0 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 12.1 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 14.0 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 14.1 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 16.0 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <t>[In IsFolder] Protocol version 16.1 supports this [IsFolder] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In IsHidden] The IsHidden element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies whether the document or folder is a hidden object.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In IsHidden] The value of this element[IsHidden] is an unsignedByte data type, as specified in [MS-ASDTYPE] section 2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R630</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R631</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R632</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R633</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R634</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R635</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 12.0 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 12.1 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 14.0 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 14.1 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 16.0 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <t>[In IsHidden] Protocol version 16.1 supports this [IsHidden] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In LastModifiedDate] The LastModifiedDate element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that specifies the date and time that the document, or the folder, or the properties of either the document or folder were was last modified.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R636</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R637</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R638</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R639</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R640</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R641</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 12.0 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 12.1 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 14.0 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 14.1 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 16.0 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <t>[In LastModifiedDate] Protocol version 16.1 supports this [LastModifiedDate] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In LinkId] It[LinkId] is a required child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in an ItemOperations command request.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In LinkId] It[LinkId] is a required child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.63.1) for Document class items in an ItemOperations command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In LinkId] It[LinkId] is a required child element of the search:EqualTo element ([MS-ASCMD] section 2.2.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In LinkId] It[LinkId] is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) for Document class items in a Search command response.</t>
-    </r>
-  </si>
-  <si>
-    <t>MS-ASDOC_R642</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R643</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R644</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R645</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R646</t>
-  </si>
-  <si>
-    <t>MS-ASDOC_R647</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 12.0 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 12.1 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 14.0 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 14.1 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 16.0 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <t>[In LinkId] Protocol version 16.1 supports this [LinkId] element.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In Searching for Documents] The client searches for Document class data on a server by sending a Search command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to the server.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Requesting Details for Specific Documents] The client requests Document class data for one or more individual documents by sending an ItemOperations command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to the server that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Requesting the Document Body from the Server] Because the body of the document is not returned as part of the Document class data, the client submits the value of the LinkID element (section 2.2.2.8) in a separate ItemOperations command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to obtain the body of the document.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Requesting the Document Body from the Server] The body of the document is returned as [either] text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) of the ItemOperations command response [or as binary data], depending on the content type that the client requested.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Requesting the Document Body from the Server] The body of the document is returned as [either text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) of the ItemOperations command response or as] binary data, depending on the content type that the client requested.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Request] A client uses an ItemOperations command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1) to retrieve data from the server for one or more individual documents.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Request] The LinkId element is transmitted as a child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In ItemOperations Command Request] A client can use the HTTP header </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> MS-ASAcceptMultiPart: T to specify that the server returns the document data in multipart binary format.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Request] If this header[the HTTP header</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> MS-ASAcceptMultiPart: T] is not used, the document data is returned as text.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Request] For more details about this header</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, see [MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Request] A client uses the Search command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to retrieve Document class items that match the criteria specified by the client.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Request] The LinkId element (section 2.2.2.8) is a required element in a Search command request, and is transmitted as a child element of the search:EqualTo element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Request] A full example of this usage is provided in [MS-ASCMD] section 4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Request] The search:Value element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>196)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> can also be included as a child of the search:EqualTo element.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Searching for Documents] The server responds with a Search command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Retrieving Details for Specific Documents] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Retrieving the Document Body] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>), which returns the body of the document as text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.39.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) of the response if the command request was not a multi-part request.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Retrieving the Document Body] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>), which returns the body of the document as binary text in multiple parts if the command request was a multi-part request.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Response] When a client uses an ItemOperations command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to retrieve data from the server for one or more individual documents, as specified in section 3.1.5.1, the server responds with an ItemOperations command response.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Response] The LinkId element is transmitted as a child element of the Itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.1).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In ItemOperations Command Response] If an ItemOperations command request for the body of the document was made using the MS-ASAcceptMultiPart: T header </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, then the server MUST respond by providing the document body as binary data in multiple parts.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In ItemOperations Command Response] Otherwise[an ItemOperations command request for the body of the document was not made using the MS-ASAcceptMultiPart: T header </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ], the server MUST transmit the document as data encoded with base64 encoding within the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of the ItemOperations command response.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Response] For more details about content delivery for documents, see [MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In ItemOperations Command Response] The ItemOperations command is specified in [MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Response] When a client uses the Search command request ([MS-ASCMD] section 2.2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) to retrieve Document class items that match the criteria specified by the client, as specified in section 3.1.5.2, the server responds with a Search command response.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[In Search Command Response] Document class elements are returned as child elements of the search:Properties element ([MS-ASCMD] section 2.2.3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>139.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>) in a Search command response.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHOULD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SHOULD NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[In Appendix B: Product Behavior] Unless otherwise specified, the term </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MAY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  implies that the product does not follow the prescription.</t>
-    </r>
-  </si>
-  <si>
-    <t>16.0</t>
+    <t>[In ContentLength] The ContentLength element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies the estimated size, in bytes, of the document.</t>
+  </si>
+  <si>
+    <t>[In ContentLength] The value of this element[ContentLength] is an integer data type, as specified in[MS-ASDTYPE] section 2.6.</t>
+  </si>
+  <si>
+    <t>[In ContentType] The ContentType element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class document items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies the MIME type of the binary-encoded content or document encoded with base64 encoding, if known.</t>
+  </si>
+  <si>
+    <t>[In ContentType] The value of this element[ContentType] is a string data type, as specified in [MS-ASDTYPE] section 2.7.</t>
+  </si>
+  <si>
+    <t>[In CreationDate] The CreationDate element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies the date and time when the document or folder was created.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] The DisplayName element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies the name of the document or folder as it is displayed to the user.</t>
+  </si>
+  <si>
+    <t>[In DisplayName] The value of this element[DisplayName] is a string data type, as specified in [MS-ASDTYPE] section 2.7.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] The IsFolder element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies whether the item is a folder.</t>
+  </si>
+  <si>
+    <t>[In IsFolder] The value of this element[IsFolder] is an unsignedByte data type, as specified in [MS-ASDTYPE] section 2.8.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] The IsHidden element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies whether the document or folder is a hidden object.</t>
+  </si>
+  <si>
+    <t>[In IsHidden] The value of this element[IsHidden] is an unsignedByte data type, as specified in [MS-ASDTYPE] section 2.8.</t>
+  </si>
+  <si>
+    <t>[In LastModifiedDate] The LastModifiedDate element is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response ([MS-ASCMD] section 2.2.1.16) that specifies the date and time that the document, or the folder, or the properties of either the document or folder were was last modified.</t>
+  </si>
+  <si>
+    <t>[In LinkId] It[LinkId] is a required child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.67.1) for Document class items in an ItemOperations command request.</t>
+  </si>
+  <si>
+    <t>[In LinkId] It[LinkId] is a required child element of the search:EqualTo element ([MS-ASCMD] section 2.2.3.62) for Document class items in a Search command request ([MS-ASCMD] section 2.2.1.16).</t>
+  </si>
+  <si>
+    <t>[In LinkId] It[LinkId] is a required child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.63.1) for Document class items in an ItemOperations command response ([MS-ASCMD] section 2.2.1.10).</t>
+  </si>
+  <si>
+    <t>[In LinkId] It[LinkId] is a required child element of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) for Document class items in a Search command response.</t>
+  </si>
+  <si>
+    <t>[In Searching for Documents] The client searches for Document class data on a server by sending a Search command request ([MS-ASCMD] section 2.2.1.16) to the server.</t>
+  </si>
+  <si>
+    <t>[In Requesting the Document Body from the Server] Because the body of the document is not returned as part of the Document class data, the client submits the value of the LinkID element (section 2.2.2.8) in a separate ItemOperations command request ([MS-ASCMD] section 2.2.1.10) to obtain the body of the document.</t>
+  </si>
+  <si>
+    <t>[In Requesting Details for Specific Documents] The client requests Document class data for one or more individual documents by sending an ItemOperations command request ([MS-ASCMD] section 2.2.1.10) to the server that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.67.1).</t>
+  </si>
+  <si>
+    <t>[In Requesting the Document Body from the Server] The body of the document is returned as [either] text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.2) of the ItemOperations command response [or as binary data], depending on the content type that the client requested.</t>
+  </si>
+  <si>
+    <t>[In Requesting the Document Body from the Server] The body of the document is returned as [either text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.2) of the ItemOperations command response or as] binary data, depending on the content type that the client requested.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Request] A client uses an ItemOperations command request ([MS-ASCMD] section 2.2.1.10) that contains one or more itemoperations:Fetch elements ([MS-ASCMD] section 2.2.3.67.1) to retrieve data from the server for one or more individual documents.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Request] The LinkId element is transmitted as a child element of the itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.67.1).</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Request] A client can use the HTTP header (2) MS-ASAcceptMultiPart: T to specify that the server returns the document data in multipart binary format.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Request] For more details about this header (2), see [MS-ASCMD] section 2.2.1.10.1.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Request] If this header[the HTTP header (2) MS-ASAcceptMultiPart: T] is not used, the document data is returned as text.</t>
+  </si>
+  <si>
+    <t>[In Search Command Request] The LinkId element (section 2.2.2.8) is a required element in a Search command request, and is transmitted as a child element of the search:EqualTo element ([MS-ASCMD] section 2.2.3.62).</t>
+  </si>
+  <si>
+    <t>[In Search Command Request] A client uses the Search command request ([MS-ASCMD] section 2.2.1.16) to retrieve Document class items that match the criteria specified by the client.</t>
+  </si>
+  <si>
+    <t>[In Search Command Request] The search:Value element ([MS-ASCMD] section 2.2.3.196) can also be included as a child of the search:EqualTo element.</t>
+  </si>
+  <si>
+    <t>[In Search Command Request] A full example of this usage is provided in [MS-ASCMD] section 4.23.1.</t>
+  </si>
+  <si>
+    <t>[In Searching for Documents] The server responds with a Search command response ([MS-ASCMD] section 2.2.1.16).</t>
+  </si>
+  <si>
+    <t>[In Retrieving Details for Specific Documents] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.1.10).</t>
+  </si>
+  <si>
+    <t>[In Retrieving the Document Body] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.1.10), which returns the body of the document as text encoded with base64 encoding in the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.2) of the response if the command request was not a multi-part request.</t>
+  </si>
+  <si>
+    <t>[In Retrieving the Document Body] The server responds with an ItemOperations command response ([MS-ASCMD] section 2.2.1.10), which returns the body of the document as binary text in multiple parts if the command request was a multi-part request.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] When a client uses an ItemOperations command request ([MS-ASCMD] section 2.2.1.10) to retrieve data from the server for one or more individual documents, as specified in section 3.1.5.1, the server responds with an ItemOperations command response.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] The LinkId element is transmitted as a child element of the Itemoperations:Fetch element ([MS-ASCMD] section 2.2.3.67.1).</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] If an ItemOperations command request for the body of the document was made using the MS-ASAcceptMultiPart: T header (2), then the server MUST respond by providing the document body as binary data in multiple parts.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] Otherwise[an ItemOperations command request for the body of the document was not made using the MS-ASAcceptMultiPart: T header (2) ], the server MUST transmit the document as data encoded with base64 encoding within the itemoperations:Data element ([MS-ASCMD] section 2.2.3.39.2) of the ItemOperations command response.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] For more details about content delivery for documents, see [MS-ASCMD] section 2.2.1.10.1.</t>
+  </si>
+  <si>
+    <t>[In ItemOperations Command Response] The ItemOperations command is specified in [MS-ASCMD] section 2.2.1.10.</t>
+  </si>
+  <si>
+    <t>[In Search Command Response] When a client uses the Search command request ([MS-ASCMD] section 2.2.1.16) to retrieve Document class items that match the criteria specified by the client, as specified in section 3.1.5.2, the server responds with a Search command response.</t>
+  </si>
+  <si>
+    <t>[In Search Command Response] Document class elements are returned as child elements of the search:Properties element ([MS-ASCMD] section 2.2.3.139.3) in a Search command response.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT"  implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY"  implies that the product does not follow the prescription.</t>
+  </si>
+  <si>
+    <t>[In Elements]The DisplayName (section 2.2.2.4) element specifies the name of the document or folder, as displayed by the client.</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +1612,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2953,15 +1664,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2989,12 +1693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3112,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3185,31 +1883,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3234,6 +1907,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5869,8 +4558,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5914,7 +4603,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>294</v>
@@ -5925,127 +4614,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -6058,12 +4747,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -6076,12 +4765,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -6094,12 +4783,12 @@
       <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -6112,60 +4801,60 @@
       <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6407,7 +5096,7 @@
         <v>182</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -6432,7 +5121,7 @@
         <v>182</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -6632,7 +5321,7 @@
         <v>183</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>299</v>
+        <v>442</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29" t="s">
@@ -6682,7 +5371,7 @@
         <v>183</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -6707,7 +5396,7 @@
         <v>183</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -6807,7 +5496,7 @@
         <v>184</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29" t="s">
@@ -6857,7 +5546,7 @@
         <v>184</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29" t="s">
@@ -6899,155 +5588,155 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" s="37" customFormat="1">
-      <c r="A48" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="B48" s="35" t="s">
+    <row r="48" spans="1:9" s="47" customFormat="1">
+      <c r="A48" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" s="47" customFormat="1">
+      <c r="A49" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" s="47" customFormat="1">
+      <c r="A50" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" s="47" customFormat="1">
+      <c r="A51" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:9" s="37" customFormat="1">
-      <c r="A49" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="35" t="s">
+      <c r="B51" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="1:9" s="37" customFormat="1">
-      <c r="A50" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="35" t="s">
+      <c r="C51" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" s="47" customFormat="1">
+      <c r="A52" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="36"/>
-    </row>
-    <row r="51" spans="1:9" s="37" customFormat="1">
-      <c r="A51" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="35" t="s">
+      <c r="C52" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" s="47" customFormat="1">
+      <c r="A53" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="1:9" s="37" customFormat="1">
-      <c r="A52" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="36"/>
-    </row>
-    <row r="53" spans="1:9" s="37" customFormat="1">
-      <c r="A53" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="36"/>
+      <c r="C53" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" ht="60">
       <c r="A54" s="29" t="s">
@@ -7057,7 +5746,7 @@
         <v>185</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="29" t="s">
@@ -7107,7 +5796,7 @@
         <v>185</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
@@ -7125,151 +5814,151 @@
       <c r="I56" s="31"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="34" t="s">
+      <c r="C61" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="34" t="s">
+      <c r="C62" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="34" t="s">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I62" s="20"/>
@@ -7282,7 +5971,7 @@
         <v>186</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -7350,151 +6039,151 @@
       <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B66" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="34" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="20"/>
@@ -7507,7 +6196,7 @@
         <v>187</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29" t="s">
@@ -7557,7 +6246,7 @@
         <v>187</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -7575,151 +6264,151 @@
       <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="20"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="34" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I80" s="20"/>
@@ -7732,7 +6421,7 @@
         <v>188</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29" t="s">
@@ -7782,7 +6471,7 @@
         <v>188</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29" t="s">
@@ -7875,151 +6564,151 @@
       <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="B87" s="35" t="s">
+      <c r="A87" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="34" t="s">
+      <c r="C87" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" s="35" t="s">
+      <c r="A88" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="34" t="s">
+      <c r="C88" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="34" t="s">
+      <c r="C89" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="35" t="s">
+      <c r="A90" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="34" t="s">
+      <c r="C90" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="34" t="s">
+      <c r="C91" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="B92" s="35" t="s">
+      <c r="A92" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="34" t="s">
+      <c r="C92" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I92" s="20"/>
@@ -8032,7 +6721,7 @@
         <v>189</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -8082,7 +6771,7 @@
         <v>189</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29" t="s">
@@ -8225,151 +6914,151 @@
       <c r="I100" s="31"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="B101" s="35" t="s">
+      <c r="A101" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="34" t="s">
+      <c r="C101" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="B102" s="35" t="s">
+      <c r="A102" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="34" t="s">
+      <c r="C102" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="B103" s="35" t="s">
+      <c r="A103" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" s="34" t="s">
+      <c r="C103" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B104" s="35" t="s">
+      <c r="A104" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="34" t="s">
+      <c r="C104" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="B105" s="35" t="s">
+      <c r="A105" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B105" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="34" t="s">
+      <c r="C105" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="20"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="B106" s="35" t="s">
+      <c r="A106" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B106" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" s="34" t="s">
+      <c r="C106" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I106" s="20"/>
@@ -8382,7 +7071,7 @@
         <v>190</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29" t="s">
@@ -8450,151 +7139,151 @@
       <c r="I109" s="31"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B110" s="35" t="s">
+      <c r="A110" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="34" t="s">
+      <c r="C110" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I110" s="20"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B111" s="35" t="s">
+      <c r="A111" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="34" t="s">
+      <c r="C111" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B112" s="35" t="s">
+      <c r="A112" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C112" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="34" t="s">
+      <c r="C112" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I112" s="20"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="B113" s="35" t="s">
+      <c r="A113" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="34" t="s">
+      <c r="C113" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I113" s="20"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="B114" s="35" t="s">
+      <c r="A114" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B114" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="34" t="s">
+      <c r="C114" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="B115" s="35" t="s">
+      <c r="A115" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="34" t="s">
+      <c r="C115" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I115" s="20"/>
@@ -8632,7 +7321,7 @@
         <v>191</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29" t="s">
@@ -8657,7 +7346,7 @@
         <v>191</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29" t="s">
@@ -8682,7 +7371,7 @@
         <v>191</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29" t="s">
@@ -8707,7 +7396,7 @@
         <v>191</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29" t="s">
@@ -8750,151 +7439,151 @@
       <c r="I121" s="31"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B122" s="35" t="s">
+      <c r="A122" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C122" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="34" t="s">
+      <c r="C122" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I122" s="20"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B123" s="35" t="s">
+      <c r="A123" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B123" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C123" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="34" t="s">
+      <c r="C123" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I123" s="20"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="B124" s="35" t="s">
+      <c r="A124" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C124" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="34" t="s">
+      <c r="C124" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="20"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="B125" s="35" t="s">
+      <c r="A125" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C125" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="34" t="s">
+      <c r="C125" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I125" s="20"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="B126" s="35" t="s">
+      <c r="A126" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C126" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="34" t="s">
+      <c r="C126" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I126" s="20"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="B127" s="35" t="s">
+      <c r="A127" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C127" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="34" t="s">
+      <c r="C127" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I127" s="20"/>
@@ -9082,7 +7771,7 @@
         <v>31</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -9107,7 +7796,7 @@
         <v>193</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29" t="s">
@@ -9357,7 +8046,7 @@
         <v>195</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29" t="s">
@@ -9382,7 +8071,7 @@
         <v>195</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
@@ -9407,7 +8096,7 @@
         <v>196</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -9432,7 +8121,7 @@
         <v>196</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -9457,7 +8146,7 @@
         <v>196</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -9507,7 +8196,7 @@
         <v>196</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -10884,6 +9573,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10891,11 +9585,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H47 A34:I47 A54:I56 D48:I53 A48:B53 A63:I65 A72:I74 A81:I86 A93:I100 A107:I109 A116:I121 A128:I206 I20:I206">
@@ -12228,12 +10917,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12471,18 +11160,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a91eaa9-ef88-40ba-81aa-04f066e43056"/>
+    <ds:schemaRef ds:uri="ad04b3f2-2c8b-4ef9-a1be-9d9fc74b1b5e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12508,19 +11207,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a91eaa9-ef88-40ba-81aa-04f066e43056"/>
-    <ds:schemaRef ds:uri="ad04b3f2-2c8b-4ef9-a1be-9d9fc74b1b5e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>